--- a/data/income_statement/2digits/size/43_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/43_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>43-Specialised construction activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>43-Specialised construction activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5840161.48304</v>
+        <v>5969242.988589999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6982189.13393</v>
+        <v>7142503.47742</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8978293.18062</v>
+        <v>9139138.899840001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>10016548.84563</v>
+        <v>10268354.20891</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>13895992.8279</v>
+        <v>14085203.36008</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>15543120.9527</v>
+        <v>16053380.63991</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>17256699.37823</v>
+        <v>18259102.41772</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>19383808.73457</v>
+        <v>20241827.16324</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>21508051.9008</v>
+        <v>22828985.58473</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>30083623.68092</v>
+        <v>30366264.28070001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>30090233.40971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>30975220.51862</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>32069156.027</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>5519045.75355</v>
+        <v>5628806.234139999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>6624687.08817</v>
+        <v>6757400.227700001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>8525189.25894</v>
+        <v>8665980.250360001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>9565929.83567</v>
+        <v>9787943.409739999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>13222081.27232</v>
+        <v>13397500.00393</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>14790606.43191</v>
+        <v>15246766.07107</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>16507419.049</v>
+        <v>17415482.68865</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>18632801.4538</v>
+        <v>19417561.84047</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>20607155.32976</v>
+        <v>21842834.93585</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>28593646.86596</v>
+        <v>28793915.97673</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>28023960.56594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>28808780.04816001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>29511553.654</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>175573.46013</v>
+        <v>193829.30217</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>211377.97603</v>
+        <v>238588.76037</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>244720.65758</v>
+        <v>263600.17789</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>253837.18364</v>
+        <v>281818.1885</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>432620.85003</v>
+        <v>447474.42817</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>466866.05401</v>
+        <v>500732.19557</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>458175.50499</v>
+        <v>514539.8501</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>431575.35729</v>
+        <v>483951.83051</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>537655.85002</v>
+        <v>591127.83277</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>966704.59423</v>
+        <v>1046681.00374</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1489254.06106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1578520.01295</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1970807.011</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>145542.26936</v>
+        <v>146607.45228</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>146124.06973</v>
+        <v>146514.48935</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>208383.2641</v>
+        <v>209558.47159</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>196781.82632</v>
+        <v>198592.61067</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>241290.70555</v>
+        <v>240228.92798</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>285648.46678</v>
+        <v>305882.37327</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>291104.82424</v>
+        <v>329079.87897</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>319431.9234799999</v>
+        <v>340313.49226</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>363240.72102</v>
+        <v>395022.81611</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>523272.2207299999</v>
+        <v>525667.3002300001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>577018.7827099999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>587920.45751</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>586795.362</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>40353.39476</v>
+        <v>47209.82323</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>48045.04846</v>
+        <v>51133.33040000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>61835.42051999999</v>
+        <v>62102.81198</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>75555.58896000001</v>
+        <v>75889.28879000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>82955.27019999998</v>
+        <v>90437.29922</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>88668.69003</v>
+        <v>91770.98110999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>101480.88232</v>
+        <v>108857.96712</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>130722.49003</v>
+        <v>146484.935</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>120935.42704</v>
+        <v>139825.80738</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>361872.0566799999</v>
+        <v>375994.0894899999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>269325.73337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>274843.09639</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>621633.309</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>24854.83225</v>
+        <v>25305.89324</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>32055.69647</v>
+        <v>31787.98069</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>34975.87215</v>
+        <v>35787.76963</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>40788.39251999999</v>
+        <v>41351.07494999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>59735.35420999999</v>
+        <v>61885.85383</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>62413.23888999999</v>
+        <v>61014.47351999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>74967.0049</v>
+        <v>75126.37406999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>110234.74517</v>
+        <v>120983.07486</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>102349.69958</v>
+        <v>121212.64561</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>330907.9994500001</v>
+        <v>342983.57345</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>233224.29136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>237895.229</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>573959.551</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>12725.46343</v>
+        <v>12783.44802</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>14740.75286</v>
+        <v>17914.80885</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>22185.55829</v>
+        <v>22059.49114</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>32957.26577999999</v>
+        <v>32774.11896</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>20186.55234</v>
+        <v>25179.97047</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>18673.78537</v>
+        <v>24693.92214</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>22352.77799</v>
+        <v>28168.65367</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>11688.12979</v>
+        <v>14005.8572</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>14884.10139</v>
+        <v>14935.95035</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>21549.22055</v>
+        <v>22571.5975</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>27201.09298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>28116.90408</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>37466.791</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2773.09908</v>
+        <v>9120.481969999999</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1248.59913</v>
+        <v>1430.54086</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>4673.99008</v>
+        <v>4255.55121</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1809.93066</v>
+        <v>1764.09488</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>3033.36365</v>
+        <v>3371.47492</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7581.66577</v>
+        <v>6062.58545</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>4161.09943</v>
+        <v>5562.93938</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>8799.615069999998</v>
+        <v>11496.00294</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>3701.62607</v>
+        <v>3677.21142</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>9414.83668</v>
+        <v>10438.91854</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>8900.349030000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>8830.963310000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>10206.967</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5799808.08828</v>
+        <v>5922033.165360001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6934144.08547</v>
+        <v>7091370.14702</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8916457.7601</v>
+        <v>9077036.087860001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>9940993.25667</v>
+        <v>10192464.92012</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>13813037.5577</v>
+        <v>13994766.06086</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>15454452.26267</v>
+        <v>15961609.6588</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>17155218.49591</v>
+        <v>18150244.4506</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>19253086.24454</v>
+        <v>20095342.22824</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>21387116.47376</v>
+        <v>22689159.77735</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>29721751.62424</v>
+        <v>29990270.19121</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>29820907.67634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>30700377.42223</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>31447522.718</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4819380.75284</v>
+        <v>4926983.74259</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5808429.387809999</v>
+        <v>5945092.29281</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>7521021.84438</v>
+        <v>7660282.45833</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>8355258.7047</v>
+        <v>8576337.072929999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>11705617.91777</v>
+        <v>11878287.02945</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>13103683.61127</v>
+        <v>13612868.14209</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>14588631.24255</v>
+        <v>15457167.11273</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>16468491.0204</v>
+        <v>17197948.73679</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>18263474.06441</v>
+        <v>19371993.28678</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>25756548.97938</v>
+        <v>26002360.68243</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>25915980.13503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>26695964.87132</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>27357860.415</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>665580.58438</v>
+        <v>682499.9752100001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>812205.24829</v>
+        <v>834081.9960299999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1121109.90364</v>
+        <v>1121462.84288</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1306717.76437</v>
+        <v>1310596.0715</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1841828.58855</v>
+        <v>1842912.15452</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2075802.21291</v>
+        <v>2084466.9486</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2388967.87669</v>
+        <v>2450310.03255</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2774264.98126</v>
+        <v>2867410.63124</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3243669.35088</v>
+        <v>3408566.96377</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4684436.76168</v>
+        <v>4671677.58114</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4528779.73018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4637061.66145</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4979011.837</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>1607653.41022</v>
+        <v>1600721.92761</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>2196333.20437</v>
+        <v>2200690.60498</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>2822554.51228</v>
+        <v>2837795.70976</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3205559.3799</v>
+        <v>3221501.32841</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>4145348.64839</v>
+        <v>4135213.1441</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>4810228.639230001</v>
+        <v>4841765.92235</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>5355914.69672</v>
+        <v>5533210.286509999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>6003608.90357</v>
+        <v>6188284.036889999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>6611293.241660001</v>
+        <v>6891576.070850001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>9066203.69121</v>
+        <v>9187674.08278</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>9309762.924520001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>9575171.736609999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>10280032.638</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2531434.46859</v>
+        <v>2625721.42902</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2783991.00727</v>
+        <v>2893475.74645</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3548008.66585</v>
+        <v>3672839.1763</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3814848.62623</v>
+        <v>4014224.10048</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>5685138.532769999</v>
+        <v>5860206.842399999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>6164613.50713</v>
+        <v>6624029.918700001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>6767360.41451</v>
+        <v>7381448.85408</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>7622549.72258</v>
+        <v>8061124.55004</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>8301902.868319999</v>
+        <v>8952785.315880001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>11862395.95647</v>
+        <v>11999347.39306</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>11895326.15064</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>12289369.97854</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>11825211.736</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>14712.28965</v>
+        <v>18040.41075</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>15899.92788</v>
+        <v>16843.94535</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>29348.76261</v>
+        <v>28184.72939</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>28132.9342</v>
+        <v>30015.57254</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>33302.14806</v>
+        <v>39954.88843</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>53039.252</v>
+        <v>62605.35244</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>76388.25463</v>
+        <v>92197.93958999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>68067.41299</v>
+        <v>81129.51862</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>106608.60355</v>
+        <v>119064.93628</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>143512.57002</v>
+        <v>143661.62545</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>182111.32969</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>194361.49472</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>273604.204</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>980427.3354400001</v>
+        <v>995049.4227699999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1125714.69766</v>
+        <v>1146277.85421</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1395435.91572</v>
+        <v>1416753.62953</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1585734.55197</v>
+        <v>1616127.84719</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2107419.63993</v>
+        <v>2116479.03141</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2350768.6514</v>
+        <v>2348741.51671</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2566587.25336</v>
+        <v>2693077.33787</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2784595.22414</v>
+        <v>2897393.49145</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3123642.40935</v>
+        <v>3317166.49057</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3965202.64486</v>
+        <v>3987909.50878</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3904927.54131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4004412.55091</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4089662.303</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>695715.93715</v>
+        <v>714690.0835299999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>817544.73519</v>
+        <v>826392.8023099999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>998506.70647</v>
+        <v>998067.4461000001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1150476.00689</v>
+        <v>1150248.82258</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1486868.7983</v>
+        <v>1479838.95045</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1665511.50182</v>
+        <v>1661261.51645</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1868009.65434</v>
+        <v>1891173.31057</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2084061.66359</v>
+        <v>2132048.44691</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2283376.55135</v>
+        <v>2347985.03798</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2822760.40488</v>
+        <v>2784914.70372</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2883013.13056</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2848071.88797</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2731990.232</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>4060.42041</v>
+        <v>7904.033759999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1809.86402</v>
+        <v>2198.27832</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>2831.41136</v>
+        <v>2805.678850000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1614.57606</v>
+        <v>1853.88076</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2480.02583</v>
+        <v>2899.49393</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1994.92958</v>
+        <v>1597.08997</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>5923.527160000001</v>
+        <v>6417.191859999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4094.99023</v>
+        <v>4293.51488</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>3847.77162</v>
+        <v>3892.45408</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>5111.13618</v>
+        <v>5090.06702</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3021.63342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1559.32738</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>6291.492</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>99400.76424999999</v>
+        <v>100894.37373</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>120246.4892</v>
+        <v>122424.62394</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>141948.83272</v>
+        <v>141574.77713</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>181744.32446</v>
+        <v>184351.50891</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>241026.33869</v>
+        <v>239964.92101</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>259017.80094</v>
+        <v>260807.60537</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>294698.06206</v>
+        <v>301200.68784</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>327667.9460700001</v>
+        <v>345183.3194500001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>350780.36258</v>
+        <v>375140.57314</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>532196.0560399999</v>
+        <v>527404.64761</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>493150.4494399999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>490950.2692799999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>447771.395</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>592254.75249</v>
+        <v>605891.6760399999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>695488.38197</v>
+        <v>701769.9000499999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>853726.46239</v>
+        <v>853686.99012</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>967117.1063700001</v>
+        <v>964043.43291</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1243362.43378</v>
+        <v>1236974.53551</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1404498.7713</v>
+        <v>1398856.82111</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1567388.06512</v>
+        <v>1583555.43087</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1752298.72729</v>
+        <v>1782571.61258</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1928748.41715</v>
+        <v>1968952.01076</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2285453.21266</v>
+        <v>2252419.98909</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2386841.0477</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2355562.29131</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2277927.345</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>284711.39829</v>
+        <v>280359.33924</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>308169.96247</v>
+        <v>319885.0519</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>396929.20925</v>
+        <v>418686.18343</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>435258.54508</v>
+        <v>465879.02461</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>620550.84163</v>
+        <v>636640.0809600001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>685257.1495800002</v>
+        <v>687480.0002599999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>698577.59902</v>
+        <v>801904.0273</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>700533.5605499999</v>
+        <v>765345.0445399999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>840265.858</v>
+        <v>969181.4525899999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1142442.23998</v>
+        <v>1202994.80506</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1021914.41075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1156340.66294</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1357672.071</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>63135.04488</v>
+        <v>95823.29956</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>56736.75085</v>
+        <v>89337.49376000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>69372.0567</v>
+        <v>95188.50621000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>60371.71197</v>
+        <v>75248.68998</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>111924.26616</v>
+        <v>165009.37575</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>109988.98328</v>
+        <v>245901.02198</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>164790.07194</v>
+        <v>356563.1843</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>155508.17922</v>
+        <v>282356.99588</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>175764.46859</v>
+        <v>282061.04666</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>664542.2813500001</v>
+        <v>776776.9346</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>535701.95355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>748803.9036199999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>807152.547</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>344.22958</v>
+        <v>2212.24536</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2349.08</v>
+        <v>9224.631230000001</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3155.94826</v>
+        <v>3006.02493</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>2248.71986</v>
+        <v>2418.14488</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>8903.537540000001</v>
+        <v>14535.78848</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>4952.55732</v>
+        <v>6488.809139999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1634.08597</v>
+        <v>4255.83403</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2809.30777</v>
+        <v>15635.93422</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>2411.44746</v>
+        <v>5010.20783</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>14885.31783</v>
+        <v>28822.04787</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>18251.967</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>32437.18223</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>10270.602</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1867.64378</v>
+        <v>1608.42596</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>772.58611</v>
+        <v>1617.57913</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>508.18768</v>
+        <v>666.82029</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>2433.89557</v>
+        <v>970.1001799999999</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1134.53584</v>
+        <v>7968.553080000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>7753.03965</v>
+        <v>79988.82842999999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>669.3990600000001</v>
+        <v>472.49141</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1513.6475</v>
+        <v>1603.1618</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>2237.18194</v>
+        <v>1726.96264</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>2499.60235</v>
+        <v>3007.68965</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2390.95555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>123283.37035</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>5970.706</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>12503.4004</v>
+        <v>18134.91975</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>10536.77529</v>
+        <v>14174.56044</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>12120.54347</v>
+        <v>15245.92241</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>14472.51427</v>
+        <v>17138.46506</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>16444.28321</v>
+        <v>21802.73139</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>21360.25172</v>
+        <v>24030.30101</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>24657.37713</v>
+        <v>37196.37987</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>28063.10215</v>
+        <v>46626.28158</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>30284.57021</v>
+        <v>54197.85695</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>84131.6977</v>
+        <v>92148.33262</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>95721.30974000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>109406.78467</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>84593.503</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>825.39189</v>
+        <v>1017.48939</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1527.96148</v>
+        <v>1471.16896</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1454.96415</v>
+        <v>4539.80204</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1423.48735</v>
+        <v>1346.77204</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>2879.704650000001</v>
+        <v>3000.663880000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3640.7481</v>
+        <v>961.5707800000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1150.72616</v>
+        <v>993.0205000000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1188.0744</v>
+        <v>1333.88831</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>3058.21186</v>
+        <v>1584.51741</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>5280.659360000001</v>
+        <v>5184.0997</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1972.75623</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1851.31428</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3727.628</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1299.62658</v>
+        <v>1075.02165</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2331.1565</v>
+        <v>3272.09031</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1499.70757</v>
+        <v>2008.39606</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1475.72073</v>
+        <v>1150.60312</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1887.10053</v>
+        <v>3259.71891</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1841.94226</v>
+        <v>2584.14591</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2711.79022</v>
+        <v>4558.1369</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1535.45926</v>
+        <v>1873.63954</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>4438.811940000001</v>
+        <v>19299.09272</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4584.684929999999</v>
+        <v>4918.883519999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>5647.289779999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>5881.986699999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4286.565</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1991.3394</v>
+        <v>2556.89827</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1921.12634</v>
+        <v>3366.56832</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>2278.11548</v>
+        <v>3115.60914</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1457.13911</v>
+        <v>1638.01552</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3058.59109</v>
+        <v>1442.12614</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2093.21363</v>
+        <v>2178.25074</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5291.26109</v>
+        <v>141580.5849</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2382.99921</v>
+        <v>4094.80748</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>2852.28765</v>
+        <v>3271.08872</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>5987.889990000001</v>
+        <v>4850.97301</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>7154.607400000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>8031.58526</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>22703.753</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>20819.72941</v>
+        <v>36862.49884</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>20983.31444</v>
+        <v>34252.63641000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>32898.37523999999</v>
+        <v>43134.51553</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>16321.79426</v>
+        <v>22501.05046</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>52985.39518</v>
+        <v>75501.02042</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>45918.64758</v>
+        <v>103090.24946</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>96184.03598999999</v>
+        <v>131261.2846</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>82633.96747</v>
+        <v>120889.65718</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>82261.35532999999</v>
+        <v>147648.28242</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>453832.32949</v>
+        <v>548770.2711</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>301805.90772</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>365144.81814</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>588425.382</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>118.82747</v>
+        <v>91.37514999999999</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>284.8021</v>
+        <v>33.44506000000001</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>462.92578</v>
+        <v>98.70446</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>149.41968</v>
+        <v>69.90863</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>281.53714</v>
+        <v>259.03714</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>173.6721</v>
+        <v>272.05097</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>282.99233</v>
+        <v>127.96233</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>148.0606</v>
+        <v>145.98509</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>138.86941</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>300.98214</v>
+        <v>300.90064</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>497.02974</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1328.71192</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>18.374</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>276.0393299999999</v>
+        <v>284.12521</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>136.8201</v>
+        <v>220.56344</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>182.37915</v>
+        <v>173.69244</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>23.76446</v>
+        <v>33.4008</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>109.88886</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>140.11096</v>
+        <v>185.18772</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>15.66446</v>
+        <v>53.8403</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>24.25399</v>
+        <v>13.25399</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>55.73831</v>
+        <v>547.1839</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>731.5378000000001</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>420.40341</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>402.70798</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>1122.107</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>23088.81704</v>
+        <v>31980.29998</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>15893.12849</v>
+        <v>21704.25046</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>14810.90992</v>
+        <v>23199.01891</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>20365.25668</v>
+        <v>27982.22929</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>24239.69212</v>
+        <v>37129.84744999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>22114.79996</v>
+        <v>26121.62782</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>32192.73953</v>
+        <v>36063.64946</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>35209.30687000001</v>
+        <v>90140.38669</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>48025.99448</v>
+        <v>48636.98466</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>92307.57975999999</v>
+        <v>88042.19869</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>101839.72698</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>101035.44209</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>86033.927</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>53694.85816</v>
+        <v>72730.85305000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>41543.93944</v>
+        <v>53844.48321000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>56995.93375000001</v>
+        <v>71593.25047</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>52205.73539</v>
+        <v>52927.85328</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>85754.24819</v>
+        <v>109700.01542</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>85486.72603000001</v>
+        <v>148775.80636</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>116677.6291</v>
+        <v>172460.59165</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>122846.80735</v>
+        <v>152154.01171</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>128942.88275</v>
+        <v>215735.02304</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>588865.56816</v>
+        <v>688552.17544</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>398726.77734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>430845.63363</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>528674.251</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1187.22022</v>
+        <v>1175.5236</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1155.89272</v>
+        <v>1193.16241</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>3467.67916</v>
+        <v>3493.63161</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2125.67773</v>
+        <v>2134.49764</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2850.46953</v>
+        <v>3003.9313</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3195.432479999999</v>
+        <v>3220.32681</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3080.91105</v>
+        <v>3276.73982</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3688.66831</v>
+        <v>4405.95707</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4111.12365</v>
+        <v>3712.62038</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4041.38368</v>
+        <v>4994.632119999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>9494.13877</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>9585.61895</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2367.229</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>8484.373220000001</v>
+        <v>9707.134749999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>6621.31129</v>
+        <v>5944.6345</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>9565.040299999999</v>
+        <v>9839.36131</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>20358.31789</v>
+        <v>15418.00791</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>18780.2206</v>
+        <v>20252.76429</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>14023.74045</v>
+        <v>13746.52282</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>15306.99496</v>
+        <v>28679.91758</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>16281.29653</v>
+        <v>19537.97654</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>19241.61131</v>
+        <v>19631.44621</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>89864.33749000001</v>
+        <v>82964.07418000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>55159.43183000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>56218.58901</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>25010.132</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>361.4473399999999</v>
+        <v>375.1439</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1578.55249</v>
+        <v>1696.32901</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>607.30538</v>
+        <v>4623.10484</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>132.97475</v>
+        <v>255.86043</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>461.63971</v>
+        <v>422.0795699999999</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>935.8947900000001</v>
+        <v>883.1285300000001</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>725.0171</v>
+        <v>214.31956</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1159.54469</v>
+        <v>2156.13763</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>6567.925689999999</v>
+        <v>1629.55357</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>2460.01765</v>
+        <v>1045.58517</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>5508.56586</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1668.87731</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>7318.258</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>23179.76377000001</v>
+        <v>40551.33683000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>20453.97631</v>
+        <v>34094.34701</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>29472.99198</v>
+        <v>38229.21323</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>18001.39678</v>
+        <v>23683.35139</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>50849.23379999999</v>
+        <v>71544.93799000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>49115.79066</v>
+        <v>113581.95928</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>80780.04635</v>
+        <v>121831.24606</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>72875.96003</v>
+        <v>93106.51308999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>74727.66521000001</v>
+        <v>149144.6738</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>444948.58611</v>
+        <v>550069.08253</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>293390.97116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>321408.37057</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>448004.762</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>50.70804</v>
+        <v>100.14711</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>134.58666</v>
+        <v>84.99856999999999</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>66.54961999999999</v>
+        <v>25.25822</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>70.08983000000001</v>
+        <v>27.08983</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>281.11953</v>
+        <v>227.7852</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1201.86526</v>
+        <v>188.84066</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>473.30119</v>
+        <v>704.37509</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>518.00973</v>
+        <v>432.48973</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>252.27434</v>
+        <v>485.11411</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>290.70573</v>
+        <v>138.16375</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>510.8565400000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>856.20329</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>10.854</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>511.92598</v>
+        <v>497.93497</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>119.83193</v>
+        <v>84.48063999999999</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>589.21818</v>
+        <v>238.33345</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>214.13208</v>
+        <v>208.59218</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>0.21371</v>
+        <v>45.17</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>13.12395</v>
+        <v>23.96553</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>9.43791</v>
+        <v>23.24207</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0.0007099999999999999</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>20.40606</v>
+        <v>20.40372</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>74.98459</v>
+        <v>74.98459000000001</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>429.25871</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>429.2587</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>19919.41959</v>
+        <v>20323.63189</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>11479.78804</v>
+        <v>10746.53107</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>13227.14913</v>
+        <v>15144.34781</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>11303.14633</v>
+        <v>11200.4539</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>12531.35131</v>
+        <v>14203.34707</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>17000.87844</v>
+        <v>17131.06273</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>16301.92054</v>
+        <v>17730.75147</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>28323.32735</v>
+        <v>32514.93694</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>24021.87649</v>
+        <v>41111.21125</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>47185.55291</v>
+        <v>49265.6531</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>34233.55447</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>40678.7158</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>45963.016</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>71127.18605</v>
+        <v>78624.65952</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>62792.9055</v>
+        <v>76067.12725000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>83601.94175</v>
+        <v>94026.57472999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>110881.52446</v>
+        <v>122053.48854</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>145951.02109</v>
+        <v>150690.67585</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>179923.95112</v>
+        <v>202106.83179</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>213367.23175</v>
+        <v>259611.9442</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>239161.01389</v>
+        <v>282097.85815</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>279390.15909</v>
+        <v>358878.527</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>584388.76354</v>
+        <v>630131.07974</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>598362.8153400001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>663669.45505</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>574483.92</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>67357.36627</v>
+        <v>73891.1133</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>59420.61434</v>
+        <v>71644.58958</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>79853.78391</v>
+        <v>90101.87973999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>106660.33247</v>
+        <v>116811.98163</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>139576.59476</v>
+        <v>143765.75286</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>171552.45659</v>
+        <v>191786.87692</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>203185.29393</v>
+        <v>243996.62684</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>229052.87228</v>
+        <v>265707.22397</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>267243.74501</v>
+        <v>333973.74313</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>557747.64576</v>
+        <v>601773.61437</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>577680.16792</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>641407.90972</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>551112.231</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>3769.81978</v>
+        <v>4733.546220000001</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>3372.29116</v>
+        <v>4422.53767</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3748.15784</v>
+        <v>3924.69499</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>4221.19199</v>
+        <v>5241.50691</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>6374.42633</v>
+        <v>6924.92299</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>8371.49453</v>
+        <v>10319.95487</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>10181.93782</v>
+        <v>15615.31736</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>10108.14161</v>
+        <v>16390.63418</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>12146.41408</v>
+        <v>24904.78387</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>26641.11778</v>
+        <v>28357.46537</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>20682.64742</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>22261.54533</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>23371.689</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>223024.39896</v>
+        <v>224827.12623</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>260569.86838</v>
+        <v>279310.9352</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>325703.3904500001</v>
+        <v>348254.86444</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>332542.9972</v>
+        <v>366146.37277</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>500769.83851</v>
+        <v>541258.76544</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>529835.45571</v>
+        <v>582498.3840899999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>533322.81011</v>
+        <v>726394.6757499999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>494033.91853</v>
+        <v>613450.1705600001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>607697.28475</v>
+        <v>676628.9492099999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>633730.18963</v>
+        <v>661088.48448</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>560526.77162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>810629.47788</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1061666.447</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>33610.53390000001</v>
+        <v>37785.27374</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>38252.71096</v>
+        <v>49171.10185</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>48837.55049999999</v>
+        <v>53796.34985</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>59151.44991</v>
+        <v>75825.63105</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>80866.5147</v>
+        <v>88969.21386</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>93567.29104</v>
+        <v>109412.69717</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>110055.63664</v>
+        <v>113718.51335</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>129670.89099</v>
+        <v>314255.34209</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>151837.19967</v>
+        <v>181067.91936</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>212927.07922</v>
+        <v>192147.38706</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>264500.2473</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>257980.88876</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>260738.273</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1434.37732</v>
+        <v>2592.96292</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1838.97888</v>
+        <v>3587.78805</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1611.00778</v>
+        <v>4401.83314</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2362.1127</v>
+        <v>1953.25236</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>3071.09283</v>
+        <v>2665.10755</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1693.40095</v>
+        <v>1624.17768</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3421.38138</v>
+        <v>4220.46881</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>6277.77984</v>
+        <v>4595.87059</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>3701.87878</v>
+        <v>3341.596490000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>6951.72476</v>
+        <v>7543.25705</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4649.083320000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4941.28596</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2935.37</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>32176.15658</v>
+        <v>35192.31082</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>36413.73208</v>
+        <v>45583.3138</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>47226.54272</v>
+        <v>49394.51671000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>56789.33721</v>
+        <v>73872.37869</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>77795.42187000001</v>
+        <v>86304.10631</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>91873.89008999999</v>
+        <v>107788.51949</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>106634.25526</v>
+        <v>109498.04454</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>123393.11115</v>
+        <v>309659.4715</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>148135.32089</v>
+        <v>177726.32287</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>205975.35446</v>
+        <v>184604.13001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>259851.16398</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>253039.6028</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>257802.903</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>36509.36162</v>
+        <v>39113.28342</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>54600.91088999999</v>
+        <v>45841.30609000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>328120.6783</v>
+        <v>333639.52663</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>55390.27473</v>
+        <v>58136.65624999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>70443.61309</v>
+        <v>66796.77855</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>239600.31219</v>
+        <v>235762.04386</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>114955.41934</v>
+        <v>112438.29916</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>311007.05097</v>
+        <v>335021.72617</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>124889.06498</v>
+        <v>138879.57257</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>452528.75939</v>
+        <v>426286.06832</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>193938.56305</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>205868.72607</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>196834.35</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1195.72309</v>
+        <v>692.7525000000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>721.3505600000001</v>
+        <v>1453.18855</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>591.76734</v>
+        <v>1727.64033</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1387.79621</v>
+        <v>1723.66243</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1607.04143</v>
+        <v>1283.78249</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1726.20169</v>
+        <v>1690.49649</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1727.38489</v>
+        <v>1197.38187</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1537.53559</v>
+        <v>2207.55479</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1940.98303</v>
+        <v>1713.64903</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>3132.91265</v>
+        <v>7198.16141</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>5570.94011</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>6753.480420000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>10941.071</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3140.16088</v>
+        <v>5085.03176</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>5583.584519999999</v>
+        <v>4465.97717</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>8051.251129999999</v>
+        <v>7686.432289999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>5308.448429999999</v>
+        <v>4837.94845</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4087.15814</v>
+        <v>3919.104150000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>5186.19683</v>
+        <v>4061.699079999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>6222.24631</v>
+        <v>7569.239479999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>8928.07869</v>
+        <v>10973.78821</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>7249.33433</v>
+        <v>8535.139570000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>58846.68679</v>
+        <v>48896.59898999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>9288.292609999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>14594.19892</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>13681.932</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>32173.47764999999</v>
+        <v>33335.49916</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>48295.97581</v>
+        <v>39922.14037000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>319477.65983</v>
+        <v>324225.45401</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>48694.03009</v>
+        <v>51575.04537</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>64749.41351999999</v>
+        <v>61593.89191000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>232687.91367</v>
+        <v>230009.84829</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>107005.78814</v>
+        <v>103671.67781</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>300541.43669</v>
+        <v>321840.38317</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>115698.74762</v>
+        <v>128630.78397</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>390549.1599500001</v>
+        <v>370191.30792</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>179079.33033</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>184521.04673</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>172211.347</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>220125.57124</v>
+        <v>223499.11655</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>244221.66845</v>
+        <v>282640.73096</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>46420.26265</v>
+        <v>68411.68766</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>336304.17238</v>
+        <v>383835.34757</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>511192.74012</v>
+        <v>563431.20075</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>383802.43456</v>
+        <v>456149.0374</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>528423.02741</v>
+        <v>727674.88994</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>312697.75855</v>
+        <v>592683.78648</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>634645.41944</v>
+        <v>718817.296</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>394128.50946</v>
+        <v>426949.8032199999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>631088.4558699999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>862741.6405699999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1125570.37</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>50019.34279</v>
+        <v>51963.00145</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>54776.93134</v>
+        <v>56607.06926999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>67502.62021000001</v>
+        <v>69859.64143</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>72247.58142999999</v>
+        <v>75981.73105</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>105552.02094</v>
+        <v>109124.26773</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>111024.29874</v>
+        <v>113946.87136</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>122026.54095</v>
+        <v>138366.92953</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>125514.73583</v>
+        <v>170887.11072</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>142227.57412</v>
+        <v>154669.56377</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>211349.365</v>
+        <v>212083.24062</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>207079.05595</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>214524.05874</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>258386.323</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>170106.22845</v>
+        <v>171536.1151</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>189444.73711</v>
+        <v>226033.66169</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-21082.35756</v>
+        <v>-1447.953769999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>264056.59095</v>
+        <v>307853.61652</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>405640.71918</v>
+        <v>454306.9330200001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>272778.13582</v>
+        <v>342202.16604</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>406396.48646</v>
+        <v>589307.9604100001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>187183.02272</v>
+        <v>421796.67576</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>492417.84532</v>
+        <v>564147.73223</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>182779.14446</v>
+        <v>214866.5626</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>424009.39992</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>648217.5818299999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>867184.047</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3946</v>
+        <v>3496</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>4559</v>
+        <v>3975</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>5246</v>
+        <v>4604</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>5780</v>
+        <v>5011</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6835</v>
+        <v>5690</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>7405</v>
+        <v>6138</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>8062</v>
+        <v>6647</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>8704</v>
+        <v>6923</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>9630</v>
+        <v>7538</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>7032</v>
+        <v>6035</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>6735</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5365</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>